--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>AUSTRALIS MAR S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18836,12 +18836,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18884,12 +18884,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -20096,7 +20096,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20111,11 +20111,11 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20124,12 +20124,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20159,11 +20159,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20172,12 +20172,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20831,7 +20831,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -20844,12 +20844,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22175,11 +22175,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,11 +22223,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22236,12 +22236,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,7 +22271,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
@@ -22289,7 +22289,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -22332,12 +22332,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22419,7 +22419,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22428,12 +22428,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22467,7 +22467,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23419,7 +23419,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F481" t="n">
@@ -23437,7 +23437,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23452,7 +23452,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23500,7 +23500,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23515,7 +23515,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>AUSTRALIS MAR S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">
@@ -23533,7 +23533,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -4052,7 +4052,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>AUSTRALIS MAR S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18836,12 +18836,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18884,12 +18884,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -20096,7 +20096,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20111,11 +20111,11 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20124,12 +20124,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20159,11 +20159,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20172,12 +20172,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20831,7 +20831,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -20844,12 +20844,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22175,11 +22175,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,11 +22223,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22236,12 +22236,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,7 +22271,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
@@ -22289,7 +22289,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -22332,12 +22332,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22419,7 +22419,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22428,12 +22428,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22467,7 +22467,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23419,7 +23419,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>AUSTRALIS MAR S.A.</t>
         </is>
       </c>
       <c r="F481" t="n">
@@ -23437,7 +23437,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23452,7 +23452,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23500,7 +23500,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23515,7 +23515,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">
@@ -23533,7 +23533,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
@@ -18535,7 +18535,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F379" t="n">
@@ -18967,7 +18967,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -19255,7 +19255,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -19591,7 +19591,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
@@ -19919,7 +19919,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F410" t="n">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F411" t="n">
@@ -21983,7 +21983,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Salmones Mitahues Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F451" t="n">
@@ -23467,7 +23467,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F482" t="n">
@@ -23515,7 +23515,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">
@@ -23607,7 +23607,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F485" t="n">
@@ -23655,7 +23655,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F486" t="n">
@@ -24207,7 +24207,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
+          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Salmones CUPQUELAN S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
+          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones CUPQUELAN S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18884,12 +18884,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20159,11 +20159,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20172,12 +20172,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20207,11 +20207,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20220,12 +20220,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,11 +22223,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22467,7 +22467,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
+          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones CUPQUELAN S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
+          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Salmones CUPQUELAN S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18884,12 +18884,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20159,11 +20159,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20172,12 +20172,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20207,11 +20207,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20220,12 +20220,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,11 +22223,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22467,7 +22467,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/02/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
+          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones CUPQUELAN S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
+          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Salmones CUPQUELAN S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18884,12 +18884,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20159,11 +20159,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20172,12 +20172,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20207,11 +20207,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20220,12 +20220,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,11 +22223,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22467,7 +22467,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
+          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Salmones CUPQUELAN S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
+          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones CUPQUELAN S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18884,12 +18884,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20159,11 +20159,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20172,12 +20172,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20207,11 +20207,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20220,12 +20220,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,11 +22223,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22467,7 +22467,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18884,12 +18884,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20159,11 +20159,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20172,12 +20172,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20207,11 +20207,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20220,12 +20220,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,11 +22223,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22467,7 +22467,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -23452,7 +23452,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23467,7 +23467,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F482" t="n">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23500,7 +23500,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23533,7 +23533,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23548,7 +23548,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23563,7 +23563,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
@@ -23581,7 +23581,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18884,12 +18884,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20159,11 +20159,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20172,12 +20172,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20207,11 +20207,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20220,12 +20220,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,11 +22223,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22467,7 +22467,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -23452,7 +23452,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23467,7 +23467,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F482" t="n">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23500,7 +23500,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23533,7 +23533,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23548,7 +23548,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23563,7 +23563,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
@@ -23581,7 +23581,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
+          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Salmones CUPQUELAN S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
+          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones CUPQUELAN S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,7 +11003,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20207,11 +20207,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20220,12 +20220,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20268,12 +20268,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,11 +22319,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22332,12 +22332,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22385,7 +22385,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -22428,12 +22428,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22563,7 +22563,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
+          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones CUPQUELAN S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
+          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Salmones CUPQUELAN S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,7 +11003,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20207,11 +20207,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20220,12 +20220,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20268,12 +20268,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,11 +22319,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22332,12 +22332,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22385,7 +22385,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -22428,12 +22428,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22563,7 +22563,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>13/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,7 +11003,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Pacific Seafood S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Pacific Seafood S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20207,11 +20207,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20220,12 +20220,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20268,12 +20268,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -22332,12 +22332,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22385,7 +22385,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -22428,12 +22428,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22563,7 +22563,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,7 +11003,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Pacific Seafood S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Pacific Seafood S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18932,12 +18932,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20207,11 +20207,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20220,12 +20220,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20268,12 +20268,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -22332,12 +22332,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22385,7 +22385,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -22428,12 +22428,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22563,7 +22563,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Nueva Cermaq Chile S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -14599,7 +14599,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,7 +11051,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Pacific Seafood S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Pacific Seafood S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19028,12 +19028,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20268,12 +20268,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20303,11 +20303,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20316,12 +20316,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -22433,7 +22433,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F461" t="n">
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22563,7 +22563,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22611,7 +22611,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,7 +11051,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Pacific Seafood S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Pacific Seafood S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19028,12 +19028,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20268,12 +20268,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20303,11 +20303,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20316,12 +20316,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -22433,7 +22433,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F461" t="n">
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22563,7 +22563,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22611,7 +22611,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/05/2022</t>
+          <t>27/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,7 +11051,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Pacific Seafood S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Pacific Seafood S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19028,12 +19028,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20268,12 +20268,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20303,11 +20303,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20316,12 +20316,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -22433,7 +22433,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F461" t="n">
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22563,7 +22563,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22611,7 +22611,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,7 +11051,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Pacific Seafood S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Pacific Seafood S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19028,12 +19028,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20268,12 +20268,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20303,11 +20303,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20316,12 +20316,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -22433,7 +22433,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F461" t="n">
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22563,7 +22563,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22611,7 +22611,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,7 +11051,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19028,12 +19028,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20268,12 +20268,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20303,11 +20303,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20316,12 +20316,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -22433,7 +22433,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F461" t="n">
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22563,7 +22563,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22611,7 +22611,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23548,7 +23548,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23563,7 +23563,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
@@ -23581,7 +23581,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23596,7 +23596,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23629,7 +23629,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23644,7 +23644,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23659,7 +23659,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F486" t="n">
@@ -23677,7 +23677,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,7 +11051,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19028,12 +19028,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20255,11 +20255,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20268,12 +20268,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20303,11 +20303,11 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20316,12 +20316,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22380,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -22433,7 +22433,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F461" t="n">
@@ -22476,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22563,7 +22563,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22611,7 +22611,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23548,7 +23548,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23563,7 +23563,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
@@ -23581,7 +23581,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23596,7 +23596,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23629,7 +23629,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23644,7 +23644,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23659,7 +23659,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F486" t="n">
@@ -23677,7 +23677,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Pacific Seafood S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Pacific Seafood S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,7 +16567,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20447,11 +20447,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20460,12 +20460,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
@@ -21180,12 +21180,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F463" t="n">
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22625,7 +22625,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22668,12 +22668,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22764,12 +22764,12 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Pacific Seafood S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pulluche 1 Código 110794</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Pacific Seafood S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Riveros 2 Código 110798</t>
+          <t>Manejo de Mortalidad Usando Sistema de Ensilaje Centro Humos 3 Código 110739</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5800007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,7 +16567,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20447,11 +20447,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20460,12 +20460,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
@@ -21180,12 +21180,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F463" t="n">
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22625,7 +22625,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22668,12 +22668,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22764,12 +22764,12 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fusión y relocalización de centro de engorda de salmones. Nº PERT 217110001-3</t>
+          <t>Relocalización de centro de engorda salmones. Nº PERT 217110001-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156454037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156453967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Relocalización de centro de engorda de salmones. Nº PERT 217110001-2</t>
+          <t>Fusión y relocalización de centro de engorda de salmones. Nº PERT 217110001-3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156454410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156454037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fusión y relocalización de centro de engorda de salmones. Nº PERT 217110001-4</t>
+          <t>Relocalización de centro de engorda de salmones. Nº PERT 217110001-2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156454431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156454410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Relocalización de centro de engorda salmones. Nº PERT 217110001-1</t>
+          <t>Fusión y relocalización de centro de engorda de salmones. Nº PERT 217110001-4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156453967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156454431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AquaChile Maullín Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,7 +16567,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20447,11 +20447,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20460,12 +20460,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
@@ -21180,12 +21180,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F463" t="n">
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22625,7 +22625,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22668,12 +22668,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22764,12 +22764,12 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -23755,7 +23755,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F488" t="n">
@@ -23773,7 +23773,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,7 +16567,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20447,11 +20447,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20460,12 +20460,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
@@ -21180,12 +21180,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F463" t="n">
@@ -22572,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22625,7 +22625,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22668,12 +22668,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22764,12 +22764,12 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -23755,7 +23755,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F488" t="n">
@@ -23773,7 +23773,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>08/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
+          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones CUPQUELAN S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
+          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Salmones CUPQUELAN S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS SUR ISLA GUERRERO (Nº 208111640) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL WILLIAMS, ISLA BUR (Nº 208111376) (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19705,7 +19705,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3990734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL WILLIAMS, ISLA BUR (Nº 208111376) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO GALLEGOS, PENINSULA GALLEGOS (Nº 208111504) (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19753,7 +19753,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO GALLEGOS, PENINSULA GALLEGOS (Nº 208111504) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO PURGATORIO, PENINSULA SKYRING (Nº 208111530) (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19801,7 +19801,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO PURGATORIO, PENINSULA SKYRING (Nº 208111530) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO GOÑI (Nº208111638) (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19849,7 +19849,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO GOÑI (Nº208111638) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO SERRANO S1 (Nº 208111531) (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19897,7 +19897,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO SERRANO S1 (Nº 208111531) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS SUR ISLA GUERRERO (Nº 208111640) (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19945,7 +19945,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3990734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,11 +22559,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,11 +22607,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
+          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Salmones CUPQUELAN S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
+          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones CUPQUELAN S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL WILLIAMS, ISLA BUR (Nº 208111376) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS SUR ISLA GUERRERO (Nº 208111640) (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19705,7 +19705,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3990734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO GALLEGOS, PENINSULA GALLEGOS (Nº 208111504) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL WILLIAMS, ISLA BUR (Nº 208111376) (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19753,7 +19753,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO PURGATORIO, PENINSULA SKYRING (Nº 208111530) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO GALLEGOS, PENINSULA GALLEGOS (Nº 208111504) (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19801,7 +19801,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO GOÑI (Nº208111638) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO PURGATORIO, PENINSULA SKYRING (Nº 208111530) (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19849,7 +19849,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO SERRANO S1 (Nº 208111531) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO GOÑI (Nº208111638) (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19897,7 +19897,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS SUR ISLA GUERRERO (Nº 208111640) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO SERRANO S1 (Nº 208111531) (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19945,7 +19945,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3990734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,11 +22559,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,11 +22607,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
+          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Salmones CUPQUELAN S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>?AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS MELCHOR 4, XI REGION? Nº de Ingreso a Trámite: 212111013 (Código del Centro: 110433) SALMONES CHILOÉ S. A. 110433</t>
+          <t>"Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmónidos Garrao Chico - Salmones Cupquelán S.A., N° PERT 201111471" 201111471</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones CUPQUELAN S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7681323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7622239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL WILLIAMS, ISLA BUR (Nº 208111376) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS SUR ISLA GUERRERO (Nº 208111640) (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19705,7 +19705,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3990734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO GALLEGOS, PENINSULA GALLEGOS (Nº 208111504) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL WILLIAMS, ISLA BUR (Nº 208111376) (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19753,7 +19753,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO PURGATORIO, PENINSULA SKYRING (Nº 208111530) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO GALLEGOS, PENINSULA GALLEGOS (Nº 208111504) (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19801,7 +19801,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO GOÑI (Nº208111638) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS SENO PURGATORIO, PENINSULA SKYRING (Nº 208111530) (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19849,7 +19849,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO SERRANO S1 (Nº 208111531) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO GOÑI (Nº208111638) (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19897,7 +19897,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS SUR ISLA GUERRERO (Nº 208111640) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS ESTERO SERRANO S1 (Nº 208111531) (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19945,7 +19945,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3990734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3967790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,11 +22559,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Gustavo Marcial Pacheco Hernandez</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO CULTIVO ISLA TUAP (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,11 +22607,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Gustavo Marcial Pacheco Hernandez</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -20176,7 +20176,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
+          <t>Centro de Engorda de Salmones, Estero Wickam al Sur de Punta Goñi. Pert210110054, Sector 14</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 2. Pert210110054, Sector 16.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128564461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Clemente</t>
+          <t>Centro de Engorda de Salmones, Estero Serrano, al Este Península de Taitao, Sector 1. Pert210110054, Sector 15</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128585565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
+          <t>Centro de Engorda de Salmones, Estero Clemente</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128589256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
+          <t>Centro de Engorda de Salmones, Estero Walker, al Weste de Península de Taitao, Sector 9. Pert 210110054, Sector 12.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128600931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Estero Walker, al Este de Península de Taitao, Sector 10. Pert210110054, Sector 13.</t>
+          <t>Centro de Engorda de Salmones, Canal Williams, al Este de Isla Juan, Sector 9. Pert 210110054, Sector 11</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128604066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -2695,7 +2695,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -16039,7 +16039,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19015,7 +19015,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -19063,7 +19063,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -20351,7 +20351,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F417" t="n">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20495,11 +20495,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -22620,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -18631,7 +18631,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Salmones Gama Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F381" t="n">
@@ -19399,7 +19399,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Caiquenes Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F397" t="n">
@@ -23039,7 +23039,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Salmones Gama Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F473" t="n">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11627,7 +11627,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22668,12 +22668,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22764,12 +22764,12 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,7 +23947,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F492" t="n">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11627,7 +11627,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20543,11 +20543,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20556,12 +20556,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21276,12 +21276,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -22668,12 +22668,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22764,12 +22764,12 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22851,7 +22851,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22860,12 +22860,12 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23947,7 +23947,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F492" t="n">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -21372,12 +21372,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22956,12 +22956,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Salmones Gama Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -21372,12 +21372,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22956,12 +22956,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23279,7 +23279,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Salmones Gama Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -21372,12 +21372,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22956,12 +22956,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/01/2023</t>
+          <t>31/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -21372,12 +21372,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22956,12 +22956,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -21372,12 +21372,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22956,12 +22956,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -21372,12 +21372,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22956,12 +22956,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Caiquenes Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -21372,12 +21372,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22956,12 +22956,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23663,7 +23663,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Caiquenes Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F486" t="n">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -14167,7 +14167,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -23231,7 +23231,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -23519,7 +23519,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -21372,12 +21372,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22956,12 +22956,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Pacific Seafoods S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos San Ramón, Isla Rojas, XI Región, Pert Nº 211111293</t>
+          <t>Modificación de Proyecto Técnico del Centro de Engorda de Salmónidos Pamela, Este Isla Fitz Roy, XI Región, Pert Nº 211111291</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Pacific Seafoods S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7087940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
+          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>PRIMAR S.A</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA DE SALMONIDEOS, CENTRO OESTE DE ISLA ITALIA, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, XI REGIÓN, PERT Nº 211111296</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA YELCHO-CALETA BLUFF</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PRIMAR S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6983980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
+          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental "Ampliación de producción Centro de Cultivo Bahía Acantilada Sector II"</t>
+          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6743098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TÉCNICO CENTRO DE CULTIVO MELCHOR, CANLA MORALEDA, AL SURESTE DE ISLA MELCHOR, COMUNA DE AYSÉN, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSÉN, CODIGO 110783"</t>
+          <t>"Ampliación de producción Centro de Cultivo Bahía Acantilada Sector I"</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
+          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DIA Estero Arnoldo (Est. Sangra) PERT 211110004</t>
+          <t>DIA Estero Cáceres (Est. Concheo) Pert 211111005</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6323646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines III</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6051983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentas II</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6052670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa I</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa II</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Huillines II</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje Centro de Mar Mentirosa III</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6042753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6053498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>ACUINOVA CHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Prieto, Canal Abandonados, Caleta Prieto, XI Región, Pert Nº 207111079 -</t>
+          <t>Declaración de Impacto Ambiental, Ampliación de Producción, Centro de Engorda de Salmones. Isla Dring, Estero Bután, Caleta Noreste, XI Región, Pert Nº 207111076</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>ACUINOVA CHILE S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4742580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
+          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estuario Barros Arana, Lado Weste Isla San José, Nº Pert 204111311, Comuna de Aysén, Provincia de Aysén, Región Del General Carlos Ibañez Del Campo</t>
+          <t>Centro de engorda de salmones Estero chasco, lado sur península Sisquelán, Nº Pert 204111308, Comuna y provincia de Aysén, región del General Carlos Ibañez del Campo</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR NORTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 1 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA VICTORIA, SECTOR NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CANAL VICUÑA, SUR DE ISLA LUZ, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
+          <t>SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES ISLA DRING, SECTOR 2 NORESTE, COMUNA DE AYSEN, PROVINCIA DE AYSEN, UNDECIMA REGIÓN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4403234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
+          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Chile Seafood S.A.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>CANAL VICUÑA, SUR DE ISLA LUZ, SECTOR 7 PERT Nº 201111446 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS CANAL UTARUPA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Chile Seafood S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20591,11 +20591,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Juan Carlos Vera Ojeda</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20604,12 +20604,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Taller de redes Juan Vera Ojeda (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Juan Carlos Vera Ojeda</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Salmones ICE VAL Ltda.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21324,12 +21324,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMONIDOS ISLA ELENA, AL NORTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN DE CENTRO DE ENGORDA DE SALMÓNIDOS ISLA ELENA, AL NORWESTE DE ISLA COLORADA, SALMONES ICE VAL LIMITADA" (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Salmones ICE VAL Ltda.</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -21372,12 +21372,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3755510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3761761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SALMONES CHILOE S.A</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -22716,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA DEL MEDIO, PERT Nº 208111466 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO DEL MEDIO, CALETA DEL FONDO, PERT Nº 208111468 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, ISLA MELCHOR, ESTERO LARGO, CALETA NORTE, PERT Nº 208111459 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES CHILOE S.A</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -22812,12 +22812,12 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3508330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22908,12 +22908,12 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CES ISLA MELCHOR, ESTERO DEL MEDIO, CALETA ENTRADA (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES ISLA MELCHOR, ESTERO LARGO, CALETA ENTRADA PERT Nº 208111465 (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22956,12 +22956,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23884,7 +23884,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS HUMOS 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN, CENTRO DE ENGORDA DE SALMONES, CANAL DARWIN, SECTOR WESTE ISLA LUZ, PERT Nº 208111649 (e-seia)</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 110722, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3351705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Aysén.xlsx
+++ b/data/Aysén.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Modificación Taller de Redes La Paloma</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONES KENT 2</t>
+          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128944416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES CONCESIÓN ISLA ANDRUCHE INVERMAR S.A. N° PERT 213111001</t>
+          <t>Modificación Taller de Redes La Paloma</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Acuicolas y Redes La Paloma Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303</t>
+          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7239218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7268968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DISPOSICION DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CES CANAL NIHUALAC LADO NOR ESTE ISLA TANGBAC</t>
+          <t>AMPLIACIÓN DE BIOMASA CES WILLIAMS, SALMONES MULTIEXPORT S.A., CANAL WILLIAMS, AL SURESTE DE ISLA CLEMENTE, COMUNA DE AYSÉN, XI REGION, NºPert. 211111303